--- a/Code/Results/Cases/Case_5_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011484423245184</v>
+        <v>1.036329779833898</v>
       </c>
       <c r="D2">
-        <v>1.029881919860351</v>
+        <v>1.043767832648233</v>
       </c>
       <c r="E2">
-        <v>1.016350700200647</v>
+        <v>1.035267632337253</v>
       </c>
       <c r="F2">
-        <v>1.034425156902343</v>
+        <v>1.052771044941338</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048011418749696</v>
+        <v>1.040289004610983</v>
       </c>
       <c r="J2">
-        <v>1.033326980303028</v>
+        <v>1.04143868769633</v>
       </c>
       <c r="K2">
-        <v>1.040940076053373</v>
+        <v>1.046540769436517</v>
       </c>
       <c r="L2">
-        <v>1.027586848283557</v>
+        <v>1.038064725921372</v>
       </c>
       <c r="M2">
-        <v>1.045424855966711</v>
+        <v>1.055518856626008</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015334515752726</v>
+        <v>1.037154938967109</v>
       </c>
       <c r="D3">
-        <v>1.032713423423988</v>
+        <v>1.044400786081595</v>
       </c>
       <c r="E3">
-        <v>1.019388773553081</v>
+        <v>1.035966107966737</v>
       </c>
       <c r="F3">
-        <v>1.037784309454859</v>
+        <v>1.053541225477026</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049083848169821</v>
+        <v>1.040476963330802</v>
       </c>
       <c r="J3">
-        <v>1.035415699709618</v>
+        <v>1.041908392460722</v>
       </c>
       <c r="K3">
-        <v>1.042944164501438</v>
+        <v>1.046985290444099</v>
       </c>
       <c r="L3">
-        <v>1.029779439233866</v>
+        <v>1.038572856107397</v>
       </c>
       <c r="M3">
-        <v>1.047955523609435</v>
+        <v>1.056102058745903</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017781768572288</v>
+        <v>1.037689606571</v>
       </c>
       <c r="D4">
-        <v>1.034516534207018</v>
+        <v>1.044810997294741</v>
       </c>
       <c r="E4">
-        <v>1.021325568329041</v>
+        <v>1.036419076330318</v>
       </c>
       <c r="F4">
-        <v>1.039924608566576</v>
+        <v>1.054040581820184</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049757973900062</v>
+        <v>1.040597794981727</v>
       </c>
       <c r="J4">
-        <v>1.036741298572504</v>
+        <v>1.042212384957955</v>
       </c>
       <c r="K4">
-        <v>1.04421548557987</v>
+        <v>1.04727288220906</v>
       </c>
       <c r="L4">
-        <v>1.031173249292006</v>
+        <v>1.038901981688915</v>
       </c>
       <c r="M4">
-        <v>1.04956392308673</v>
+        <v>1.0564797638206</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018800372309886</v>
+        <v>1.037914554885054</v>
       </c>
       <c r="D5">
-        <v>1.035267784772029</v>
+        <v>1.044983603355491</v>
       </c>
       <c r="E5">
-        <v>1.022133038883329</v>
+        <v>1.036609743612425</v>
       </c>
       <c r="F5">
-        <v>1.040816640103475</v>
+        <v>1.054250748094392</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050036719743968</v>
+        <v>1.040648402667038</v>
       </c>
       <c r="J5">
-        <v>1.037292521508499</v>
+        <v>1.042340196920781</v>
       </c>
       <c r="K5">
-        <v>1.044743995555893</v>
+        <v>1.047393774112006</v>
       </c>
       <c r="L5">
-        <v>1.031753386619799</v>
+        <v>1.039040423958177</v>
       </c>
       <c r="M5">
-        <v>1.050233298126351</v>
+        <v>1.056638629389677</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018970809916328</v>
+        <v>1.0379523348517</v>
       </c>
       <c r="D6">
-        <v>1.035393530737458</v>
+        <v>1.045012593605821</v>
       </c>
       <c r="E6">
-        <v>1.022268225974595</v>
+        <v>1.036641771469762</v>
       </c>
       <c r="F6">
-        <v>1.040965967922217</v>
+        <v>1.054286049766595</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050083251748706</v>
+        <v>1.040656888759721</v>
       </c>
       <c r="J6">
-        <v>1.037384723272126</v>
+        <v>1.042361657865095</v>
       </c>
       <c r="K6">
-        <v>1.044832389599548</v>
+        <v>1.047414071670041</v>
       </c>
       <c r="L6">
-        <v>1.031850457195394</v>
+        <v>1.039063673548612</v>
       </c>
       <c r="M6">
-        <v>1.05034529552646</v>
+        <v>1.056665308163795</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017795418958548</v>
+        <v>1.037692611659696</v>
       </c>
       <c r="D7">
-        <v>1.034526598849198</v>
+        <v>1.044813303065491</v>
       </c>
       <c r="E7">
-        <v>1.021336384091003</v>
+        <v>1.036421623097678</v>
       </c>
       <c r="F7">
-        <v>1.039936558100892</v>
+        <v>1.054043389144092</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049761716701844</v>
+        <v>1.040598471951383</v>
       </c>
       <c r="J7">
-        <v>1.036748687650101</v>
+        <v>1.04221409273624</v>
       </c>
       <c r="K7">
-        <v>1.044222570765053</v>
+        <v>1.047274497620176</v>
       </c>
       <c r="L7">
-        <v>1.031181023789363</v>
+        <v>1.038903831257127</v>
       </c>
       <c r="M7">
-        <v>1.049572893787389</v>
+        <v>1.056481886284332</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01279488786934</v>
+        <v>1.036608493078939</v>
       </c>
       <c r="D8">
-        <v>1.030844967810627</v>
+        <v>1.043981606924517</v>
       </c>
       <c r="E8">
-        <v>1.017383564267944</v>
+        <v>1.035503475596544</v>
       </c>
       <c r="F8">
-        <v>1.035567428579673</v>
+        <v>1.053031123168483</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048378005223527</v>
+        <v>1.040352689299129</v>
       </c>
       <c r="J8">
-        <v>1.034038337715616</v>
+        <v>1.041597412948472</v>
       </c>
       <c r="K8">
-        <v>1.041622725343583</v>
+        <v>1.046691005483519</v>
       </c>
       <c r="L8">
-        <v>1.028333102092666</v>
+        <v>1.03823638140808</v>
       </c>
       <c r="M8">
-        <v>1.046286241273178</v>
+        <v>1.05571588228415</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003631357826846</v>
+        <v>1.034703841611125</v>
       </c>
       <c r="D9">
-        <v>1.024126440238513</v>
+        <v>1.042521097776186</v>
       </c>
       <c r="E9">
-        <v>1.010186637155341</v>
+        <v>1.033893386682368</v>
       </c>
       <c r="F9">
-        <v>1.027603077190204</v>
+        <v>1.051255116269124</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045784002031492</v>
+        <v>1.039913570626623</v>
       </c>
       <c r="J9">
-        <v>1.029056531965818</v>
+        <v>1.040511279828679</v>
       </c>
       <c r="K9">
-        <v>1.036839845115187</v>
+        <v>1.045662548614262</v>
       </c>
       <c r="L9">
-        <v>1.023116577312239</v>
+        <v>1.037062851852264</v>
       </c>
       <c r="M9">
-        <v>1.040263643598663</v>
+        <v>1.054368719974086</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9972638718557955</v>
+        <v>1.033438015363137</v>
       </c>
       <c r="D10">
-        <v>1.019479726293431</v>
+        <v>1.041550929263659</v>
       </c>
       <c r="E10">
-        <v>1.005219642703871</v>
+        <v>1.032825355892337</v>
       </c>
       <c r="F10">
-        <v>1.022099901602104</v>
+        <v>1.050076435780486</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043944049524133</v>
+        <v>1.039616824245299</v>
       </c>
       <c r="J10">
-        <v>1.025586469244262</v>
+        <v>1.039787631877622</v>
       </c>
       <c r="K10">
-        <v>1.033505955438768</v>
+        <v>1.04497681155588</v>
       </c>
       <c r="L10">
-        <v>1.019495290102232</v>
+        <v>1.03628233557423</v>
       </c>
       <c r="M10">
-        <v>1.036081279791471</v>
+        <v>1.053472483469316</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9944401812375004</v>
+        <v>1.032890855920897</v>
       </c>
       <c r="D11">
-        <v>1.017424944972939</v>
+        <v>1.041131690445304</v>
       </c>
       <c r="E11">
-        <v>1.003025623161676</v>
+        <v>1.032364182826989</v>
       </c>
       <c r="F11">
-        <v>1.019667453584794</v>
+        <v>1.049567343092941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043119685302871</v>
+        <v>1.039487390564837</v>
       </c>
       <c r="J11">
-        <v>1.024046098373478</v>
+        <v>1.039474405965692</v>
       </c>
       <c r="K11">
-        <v>1.032025567503121</v>
+        <v>1.04467987364383</v>
       </c>
       <c r="L11">
-        <v>1.017890705340556</v>
+        <v>1.035944817502022</v>
       </c>
       <c r="M11">
-        <v>1.034227763101652</v>
+        <v>1.053084868361035</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9933808707366449</v>
+        <v>1.032687761332046</v>
       </c>
       <c r="D12">
-        <v>1.016655024509228</v>
+        <v>1.040976096195779</v>
       </c>
       <c r="E12">
-        <v>1.002203879063659</v>
+        <v>1.032193078604478</v>
       </c>
       <c r="F12">
-        <v>1.018756167501363</v>
+        <v>1.049378438400345</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042809197513092</v>
+        <v>1.039439172597501</v>
       </c>
       <c r="J12">
-        <v>1.023468030029668</v>
+        <v>1.039358079088583</v>
       </c>
       <c r="K12">
-        <v>1.031469948564708</v>
+        <v>1.044569577693724</v>
       </c>
       <c r="L12">
-        <v>1.017288977681549</v>
+        <v>1.035819517459186</v>
       </c>
       <c r="M12">
-        <v>1.033532639943107</v>
+        <v>1.052940961866453</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9936085779119541</v>
+        <v>1.03273131922959</v>
       </c>
       <c r="D13">
-        <v>1.016820481894315</v>
+        <v>1.041009465789698</v>
       </c>
       <c r="E13">
-        <v>1.002380457866995</v>
+        <v>1.032229772140377</v>
       </c>
       <c r="F13">
-        <v>1.018951998312981</v>
+        <v>1.049418950239846</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042875994107083</v>
+        <v>1.039449521862316</v>
       </c>
       <c r="J13">
-        <v>1.023592298669264</v>
+        <v>1.039383030708818</v>
       </c>
       <c r="K13">
-        <v>1.031589393812191</v>
+        <v>1.044593236526433</v>
       </c>
       <c r="L13">
-        <v>1.017418312571534</v>
+        <v>1.035846391588395</v>
       </c>
       <c r="M13">
-        <v>1.033682051156582</v>
+        <v>1.052971827056795</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9943528346255923</v>
+        <v>1.03287406509466</v>
       </c>
       <c r="D14">
-        <v>1.017361441021318</v>
+        <v>1.041118826318826</v>
       </c>
       <c r="E14">
-        <v>1.002957837706791</v>
+        <v>1.032350035289037</v>
       </c>
       <c r="F14">
-        <v>1.01959228676479</v>
+        <v>1.049551724181885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043094108404793</v>
+        <v>1.039483407715036</v>
       </c>
       <c r="J14">
-        <v>1.02399843689214</v>
+        <v>1.039464789950634</v>
       </c>
       <c r="K14">
-        <v>1.031979758151701</v>
+        <v>1.044670756537857</v>
       </c>
       <c r="L14">
-        <v>1.017841084230542</v>
+        <v>1.035934458741147</v>
       </c>
       <c r="M14">
-        <v>1.034170441077443</v>
+        <v>1.05307297154665</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9948099943448501</v>
+        <v>1.032962034773704</v>
       </c>
       <c r="D15">
-        <v>1.017693850056966</v>
+        <v>1.041186224196214</v>
       </c>
       <c r="E15">
-        <v>1.003312672268799</v>
+        <v>1.032424159413631</v>
       </c>
       <c r="F15">
-        <v>1.01998575047356</v>
+        <v>1.049633556492636</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043227924447092</v>
+        <v>1.039504267308033</v>
       </c>
       <c r="J15">
-        <v>1.024247882498569</v>
+        <v>1.039515167099819</v>
       </c>
       <c r="K15">
-        <v>1.032219507846412</v>
+        <v>1.044718519218783</v>
       </c>
       <c r="L15">
-        <v>1.018100803835337</v>
+        <v>1.035988729034557</v>
       </c>
       <c r="M15">
-        <v>1.034470465884316</v>
+        <v>1.053135299466775</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9974498296491305</v>
+        <v>1.033474348738584</v>
       </c>
       <c r="D16">
-        <v>1.019615172972544</v>
+        <v>1.041578770848103</v>
       </c>
       <c r="E16">
-        <v>1.005364316710062</v>
+        <v>1.032855989805624</v>
       </c>
       <c r="F16">
-        <v>1.022260264198842</v>
+        <v>1.050110249814422</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043998166513063</v>
+        <v>1.039625394581997</v>
       </c>
       <c r="J16">
-        <v>1.025687883001912</v>
+        <v>1.039808422262776</v>
       </c>
       <c r="K16">
-        <v>1.033603411137598</v>
+        <v>1.04499651827197</v>
       </c>
       <c r="L16">
-        <v>1.019600992404956</v>
+        <v>1.036304745158966</v>
       </c>
       <c r="M16">
-        <v>1.036203374125789</v>
+        <v>1.053498218071799</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9990875931574106</v>
+        <v>1.03379596582223</v>
       </c>
       <c r="D17">
-        <v>1.02080874745418</v>
+        <v>1.041825234070545</v>
       </c>
       <c r="E17">
-        <v>1.006639475452219</v>
+        <v>1.033127212723403</v>
       </c>
       <c r="F17">
-        <v>1.023673520642455</v>
+        <v>1.050409612140233</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044473827663121</v>
+        <v>1.039701123254762</v>
       </c>
       <c r="J17">
-        <v>1.026580879024296</v>
+        <v>1.03999240615956</v>
       </c>
       <c r="K17">
-        <v>1.034461502660104</v>
+        <v>1.045170898247718</v>
       </c>
       <c r="L17">
-        <v>1.02053208355803</v>
+        <v>1.036503095426426</v>
       </c>
       <c r="M17">
-        <v>1.037278820271205</v>
+        <v>1.053725992020902</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000036487203025</v>
+        <v>1.033983651327082</v>
       </c>
       <c r="D18">
-        <v>1.021500835642783</v>
+        <v>1.04196907383487</v>
       </c>
       <c r="E18">
-        <v>1.007379098321866</v>
+        <v>1.03328553692295</v>
       </c>
       <c r="F18">
-        <v>1.024493092432799</v>
+        <v>1.050584348839724</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044748613679786</v>
+        <v>1.039745203708234</v>
       </c>
       <c r="J18">
-        <v>1.027098116166313</v>
+        <v>1.040099732187604</v>
       </c>
       <c r="K18">
-        <v>1.034958477796871</v>
+        <v>1.045272610151843</v>
       </c>
       <c r="L18">
-        <v>1.021071663059351</v>
+        <v>1.036618833160317</v>
       </c>
       <c r="M18">
-        <v>1.037902024684159</v>
+        <v>1.053858893096572</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000358966292007</v>
+        <v>1.03404766273307</v>
       </c>
       <c r="D19">
-        <v>1.021736131586284</v>
+        <v>1.04201813331649</v>
       </c>
       <c r="E19">
-        <v>1.007630594156852</v>
+        <v>1.033339542433821</v>
       </c>
       <c r="F19">
-        <v>1.024771747965064</v>
+        <v>1.050643950458792</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044841861345214</v>
+        <v>1.039760218579051</v>
       </c>
       <c r="J19">
-        <v>1.027273871198479</v>
+        <v>1.040136329470019</v>
       </c>
       <c r="K19">
-        <v>1.035127340027182</v>
+        <v>1.045307291072937</v>
       </c>
       <c r="L19">
-        <v>1.021255056909691</v>
+        <v>1.036658304048909</v>
       </c>
       <c r="M19">
-        <v>1.038113835909214</v>
+        <v>1.053904216404901</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9989125404548908</v>
+        <v>1.033761449854751</v>
       </c>
       <c r="D20">
-        <v>1.020681114531024</v>
+        <v>1.041798782410296</v>
       </c>
       <c r="E20">
-        <v>1.006503094840879</v>
+        <v>1.033098100183343</v>
       </c>
       <c r="F20">
-        <v>1.023522385906322</v>
+        <v>1.050377480583539</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044423069665577</v>
+        <v>1.039693007671199</v>
       </c>
       <c r="J20">
-        <v>1.02648544630055</v>
+        <v>1.039972665246376</v>
       </c>
       <c r="K20">
-        <v>1.034369804692995</v>
+        <v>1.045152189018472</v>
       </c>
       <c r="L20">
-        <v>1.020432550941604</v>
+        <v>1.036481809822249</v>
       </c>
       <c r="M20">
-        <v>1.037163859425014</v>
+        <v>1.053701549428443</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9941339624089022</v>
+        <v>1.03283202598376</v>
       </c>
       <c r="D21">
-        <v>1.01720232872568</v>
+        <v>1.041086618772514</v>
       </c>
       <c r="E21">
-        <v>1.002788003474465</v>
+        <v>1.03231461536311</v>
       </c>
       <c r="F21">
-        <v>1.019403954861944</v>
+        <v>1.049512620165227</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043029998452278</v>
+        <v>1.039473433049264</v>
       </c>
       <c r="J21">
-        <v>1.023879004216509</v>
+        <v>1.039440713351358</v>
       </c>
       <c r="K21">
-        <v>1.031864965691004</v>
+        <v>1.044647928815068</v>
       </c>
       <c r="L21">
-        <v>1.017716748087311</v>
+        <v>1.035908523237491</v>
       </c>
       <c r="M21">
-        <v>1.034026807962541</v>
+        <v>1.053043185041146</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9910686738297447</v>
+        <v>1.03224849891841</v>
       </c>
       <c r="D22">
-        <v>1.014976269699102</v>
+        <v>1.040639604667065</v>
       </c>
       <c r="E22">
-        <v>1.000412754711639</v>
+        <v>1.031823142263965</v>
       </c>
       <c r="F22">
-        <v>1.016769425341037</v>
+        <v>1.048969977351416</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042129275196929</v>
+        <v>1.039334565057663</v>
       </c>
       <c r="J22">
-        <v>1.022205939343609</v>
+        <v>1.03910636569424</v>
       </c>
       <c r="K22">
-        <v>1.030256769573116</v>
+        <v>1.044330881170959</v>
       </c>
       <c r="L22">
-        <v>1.015976039282797</v>
+        <v>1.035548476301124</v>
       </c>
       <c r="M22">
-        <v>1.032015839171273</v>
+        <v>1.052629656944994</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9926995695931961</v>
+        <v>1.032557757559984</v>
       </c>
       <c r="D23">
-        <v>1.016160116341356</v>
+        <v>1.040876503431027</v>
       </c>
       <c r="E23">
-        <v>1.001675755280439</v>
+        <v>1.032083573215774</v>
       </c>
       <c r="F23">
-        <v>1.018170427911315</v>
+        <v>1.049257534822366</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042609165106364</v>
+        <v>1.039408258385587</v>
       </c>
       <c r="J23">
-        <v>1.023096191682488</v>
+        <v>1.039283598672706</v>
       </c>
       <c r="K23">
-        <v>1.031112534612957</v>
+        <v>1.044498953586445</v>
       </c>
       <c r="L23">
-        <v>1.016902044403712</v>
+        <v>1.035739305476252</v>
       </c>
       <c r="M23">
-        <v>1.033085637721424</v>
+        <v>1.052848836410999</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9989916589360165</v>
+        <v>1.03377704585162</v>
       </c>
       <c r="D24">
-        <v>1.020738799017889</v>
+        <v>1.041810734524053</v>
       </c>
       <c r="E24">
-        <v>1.006564732190814</v>
+        <v>1.033111254502767</v>
       </c>
       <c r="F24">
-        <v>1.023590691865064</v>
+        <v>1.050391999068934</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044446013228039</v>
+        <v>1.039696675034737</v>
       </c>
       <c r="J24">
-        <v>1.02652857944951</v>
+        <v>1.039981585280467</v>
       </c>
       <c r="K24">
-        <v>1.03441124996699</v>
+        <v>1.045160642917068</v>
       </c>
       <c r="L24">
-        <v>1.020477536278443</v>
+        <v>1.036491427736713</v>
       </c>
       <c r="M24">
-        <v>1.037215817889154</v>
+        <v>1.053712593846942</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006044234184888</v>
+        <v>1.035195552771242</v>
       </c>
       <c r="D25">
-        <v>1.025891953322232</v>
+        <v>1.0428980649282</v>
       </c>
       <c r="E25">
-        <v>1.012075989924345</v>
+        <v>1.034308696590069</v>
       </c>
       <c r="F25">
-        <v>1.029695018514115</v>
+        <v>1.051713327248885</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04647365800916</v>
+        <v>1.040027801816837</v>
       </c>
       <c r="J25">
-        <v>1.030369883954903</v>
+        <v>1.040791999496987</v>
       </c>
       <c r="K25">
-        <v>1.038101199490574</v>
+        <v>1.045928452833286</v>
       </c>
       <c r="L25">
-        <v>1.024489690061811</v>
+        <v>1.037365920003747</v>
       </c>
       <c r="M25">
-        <v>1.041849205593192</v>
+        <v>1.054716671167548</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036329779833898</v>
+        <v>1.011484423245184</v>
       </c>
       <c r="D2">
-        <v>1.043767832648233</v>
+        <v>1.029881919860351</v>
       </c>
       <c r="E2">
-        <v>1.035267632337253</v>
+        <v>1.016350700200647</v>
       </c>
       <c r="F2">
-        <v>1.052771044941338</v>
+        <v>1.034425156902343</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040289004610983</v>
+        <v>1.048011418749696</v>
       </c>
       <c r="J2">
-        <v>1.04143868769633</v>
+        <v>1.033326980303028</v>
       </c>
       <c r="K2">
-        <v>1.046540769436517</v>
+        <v>1.040940076053372</v>
       </c>
       <c r="L2">
-        <v>1.038064725921372</v>
+        <v>1.027586848283558</v>
       </c>
       <c r="M2">
-        <v>1.055518856626008</v>
+        <v>1.045424855966711</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037154938967109</v>
+        <v>1.015334515752726</v>
       </c>
       <c r="D3">
-        <v>1.044400786081595</v>
+        <v>1.032713423423988</v>
       </c>
       <c r="E3">
-        <v>1.035966107966737</v>
+        <v>1.019388773553081</v>
       </c>
       <c r="F3">
-        <v>1.053541225477026</v>
+        <v>1.037784309454859</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040476963330802</v>
+        <v>1.049083848169821</v>
       </c>
       <c r="J3">
-        <v>1.041908392460722</v>
+        <v>1.035415699709618</v>
       </c>
       <c r="K3">
-        <v>1.046985290444099</v>
+        <v>1.042944164501437</v>
       </c>
       <c r="L3">
-        <v>1.038572856107397</v>
+        <v>1.029779439233866</v>
       </c>
       <c r="M3">
-        <v>1.056102058745903</v>
+        <v>1.047955523609435</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037689606571</v>
+        <v>1.017781768572289</v>
       </c>
       <c r="D4">
-        <v>1.044810997294741</v>
+        <v>1.034516534207019</v>
       </c>
       <c r="E4">
-        <v>1.036419076330318</v>
+        <v>1.021325568329042</v>
       </c>
       <c r="F4">
-        <v>1.054040581820184</v>
+        <v>1.039924608566577</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040597794981727</v>
+        <v>1.049757973900063</v>
       </c>
       <c r="J4">
-        <v>1.042212384957955</v>
+        <v>1.036741298572504</v>
       </c>
       <c r="K4">
-        <v>1.04727288220906</v>
+        <v>1.04421548557987</v>
       </c>
       <c r="L4">
-        <v>1.038901981688915</v>
+        <v>1.031173249292006</v>
       </c>
       <c r="M4">
-        <v>1.0564797638206</v>
+        <v>1.049563923086731</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037914554885054</v>
+        <v>1.018800372309887</v>
       </c>
       <c r="D5">
-        <v>1.044983603355491</v>
+        <v>1.035267784772029</v>
       </c>
       <c r="E5">
-        <v>1.036609743612425</v>
+        <v>1.022133038883329</v>
       </c>
       <c r="F5">
-        <v>1.054250748094392</v>
+        <v>1.040816640103475</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040648402667038</v>
+        <v>1.050036719743968</v>
       </c>
       <c r="J5">
-        <v>1.042340196920781</v>
+        <v>1.0372925215085</v>
       </c>
       <c r="K5">
-        <v>1.047393774112006</v>
+        <v>1.044743995555893</v>
       </c>
       <c r="L5">
-        <v>1.039040423958177</v>
+        <v>1.031753386619799</v>
       </c>
       <c r="M5">
-        <v>1.056638629389677</v>
+        <v>1.050233298126351</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0379523348517</v>
+        <v>1.018970809916328</v>
       </c>
       <c r="D6">
-        <v>1.045012593605821</v>
+        <v>1.035393530737458</v>
       </c>
       <c r="E6">
-        <v>1.036641771469762</v>
+        <v>1.022268225974595</v>
       </c>
       <c r="F6">
-        <v>1.054286049766595</v>
+        <v>1.040965967922217</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040656888759721</v>
+        <v>1.050083251748706</v>
       </c>
       <c r="J6">
-        <v>1.042361657865095</v>
+        <v>1.037384723272126</v>
       </c>
       <c r="K6">
-        <v>1.047414071670041</v>
+        <v>1.044832389599548</v>
       </c>
       <c r="L6">
-        <v>1.039063673548612</v>
+        <v>1.031850457195394</v>
       </c>
       <c r="M6">
-        <v>1.056665308163795</v>
+        <v>1.05034529552646</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037692611659696</v>
+        <v>1.017795418958548</v>
       </c>
       <c r="D7">
-        <v>1.044813303065491</v>
+        <v>1.034526598849198</v>
       </c>
       <c r="E7">
-        <v>1.036421623097678</v>
+        <v>1.021336384091003</v>
       </c>
       <c r="F7">
-        <v>1.054043389144092</v>
+        <v>1.039936558100891</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040598471951383</v>
+        <v>1.049761716701845</v>
       </c>
       <c r="J7">
-        <v>1.04221409273624</v>
+        <v>1.036748687650101</v>
       </c>
       <c r="K7">
-        <v>1.047274497620176</v>
+        <v>1.044222570765053</v>
       </c>
       <c r="L7">
-        <v>1.038903831257127</v>
+        <v>1.031181023789363</v>
       </c>
       <c r="M7">
-        <v>1.056481886284332</v>
+        <v>1.04957289378739</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036608493078939</v>
+        <v>1.012794887869339</v>
       </c>
       <c r="D8">
-        <v>1.043981606924517</v>
+        <v>1.030844967810626</v>
       </c>
       <c r="E8">
-        <v>1.035503475596544</v>
+        <v>1.017383564267943</v>
       </c>
       <c r="F8">
-        <v>1.053031123168483</v>
+        <v>1.035567428579672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040352689299129</v>
+        <v>1.048378005223526</v>
       </c>
       <c r="J8">
-        <v>1.041597412948472</v>
+        <v>1.034038337715615</v>
       </c>
       <c r="K8">
-        <v>1.046691005483519</v>
+        <v>1.041622725343582</v>
       </c>
       <c r="L8">
-        <v>1.03823638140808</v>
+        <v>1.028333102092664</v>
       </c>
       <c r="M8">
-        <v>1.05571588228415</v>
+        <v>1.046286241273177</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034703841611125</v>
+        <v>1.003631357826845</v>
       </c>
       <c r="D9">
-        <v>1.042521097776186</v>
+        <v>1.024126440238512</v>
       </c>
       <c r="E9">
-        <v>1.033893386682368</v>
+        <v>1.01018663715534</v>
       </c>
       <c r="F9">
-        <v>1.051255116269124</v>
+        <v>1.027603077190204</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039913570626623</v>
+        <v>1.045784002031492</v>
       </c>
       <c r="J9">
-        <v>1.040511279828679</v>
+        <v>1.029056531965817</v>
       </c>
       <c r="K9">
-        <v>1.045662548614262</v>
+        <v>1.036839845115186</v>
       </c>
       <c r="L9">
-        <v>1.037062851852264</v>
+        <v>1.023116577312238</v>
       </c>
       <c r="M9">
-        <v>1.054368719974086</v>
+        <v>1.040263643598662</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033438015363137</v>
+        <v>0.997263871855795</v>
       </c>
       <c r="D10">
-        <v>1.041550929263659</v>
+        <v>1.019479726293431</v>
       </c>
       <c r="E10">
-        <v>1.032825355892337</v>
+        <v>1.005219642703871</v>
       </c>
       <c r="F10">
-        <v>1.050076435780486</v>
+        <v>1.022099901602104</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039616824245299</v>
+        <v>1.043944049524133</v>
       </c>
       <c r="J10">
-        <v>1.039787631877622</v>
+        <v>1.025586469244262</v>
       </c>
       <c r="K10">
-        <v>1.04497681155588</v>
+        <v>1.033505955438768</v>
       </c>
       <c r="L10">
-        <v>1.03628233557423</v>
+        <v>1.019495290102232</v>
       </c>
       <c r="M10">
-        <v>1.053472483469316</v>
+        <v>1.036081279791471</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032890855920897</v>
+        <v>0.9944401812375003</v>
       </c>
       <c r="D11">
-        <v>1.041131690445304</v>
+        <v>1.017424944972939</v>
       </c>
       <c r="E11">
-        <v>1.032364182826989</v>
+        <v>1.003025623161676</v>
       </c>
       <c r="F11">
-        <v>1.049567343092941</v>
+        <v>1.019667453584794</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039487390564837</v>
+        <v>1.043119685302871</v>
       </c>
       <c r="J11">
-        <v>1.039474405965692</v>
+        <v>1.024046098373478</v>
       </c>
       <c r="K11">
-        <v>1.04467987364383</v>
+        <v>1.03202556750312</v>
       </c>
       <c r="L11">
-        <v>1.035944817502022</v>
+        <v>1.017890705340556</v>
       </c>
       <c r="M11">
-        <v>1.053084868361035</v>
+        <v>1.034227763101651</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032687761332046</v>
+        <v>0.9933808707366456</v>
       </c>
       <c r="D12">
-        <v>1.040976096195779</v>
+        <v>1.016655024509229</v>
       </c>
       <c r="E12">
-        <v>1.032193078604478</v>
+        <v>1.002203879063659</v>
       </c>
       <c r="F12">
-        <v>1.049378438400345</v>
+        <v>1.018756167501364</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039439172597501</v>
+        <v>1.042809197513092</v>
       </c>
       <c r="J12">
-        <v>1.039358079088583</v>
+        <v>1.023468030029669</v>
       </c>
       <c r="K12">
-        <v>1.044569577693724</v>
+        <v>1.031469948564708</v>
       </c>
       <c r="L12">
-        <v>1.035819517459186</v>
+        <v>1.01728897768155</v>
       </c>
       <c r="M12">
-        <v>1.052940961866453</v>
+        <v>1.033532639943107</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03273131922959</v>
+        <v>0.993608577911955</v>
       </c>
       <c r="D13">
-        <v>1.041009465789698</v>
+        <v>1.016820481894316</v>
       </c>
       <c r="E13">
-        <v>1.032229772140377</v>
+        <v>1.002380457866995</v>
       </c>
       <c r="F13">
-        <v>1.049418950239846</v>
+        <v>1.018951998312982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039449521862316</v>
+        <v>1.042875994107083</v>
       </c>
       <c r="J13">
-        <v>1.039383030708818</v>
+        <v>1.023592298669264</v>
       </c>
       <c r="K13">
-        <v>1.044593236526433</v>
+        <v>1.031589393812191</v>
       </c>
       <c r="L13">
-        <v>1.035846391588395</v>
+        <v>1.017418312571534</v>
       </c>
       <c r="M13">
-        <v>1.052971827056795</v>
+        <v>1.033682051156583</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03287406509466</v>
+        <v>0.994352834625592</v>
       </c>
       <c r="D14">
-        <v>1.041118826318826</v>
+        <v>1.017361441021317</v>
       </c>
       <c r="E14">
-        <v>1.032350035289037</v>
+        <v>1.002957837706791</v>
       </c>
       <c r="F14">
-        <v>1.049551724181885</v>
+        <v>1.019592286764789</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039483407715036</v>
+        <v>1.043094108404793</v>
       </c>
       <c r="J14">
-        <v>1.039464789950634</v>
+        <v>1.02399843689214</v>
       </c>
       <c r="K14">
-        <v>1.044670756537857</v>
+        <v>1.031979758151701</v>
       </c>
       <c r="L14">
-        <v>1.035934458741147</v>
+        <v>1.017841084230542</v>
       </c>
       <c r="M14">
-        <v>1.05307297154665</v>
+        <v>1.034170441077443</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032962034773704</v>
+        <v>0.9948099943448496</v>
       </c>
       <c r="D15">
-        <v>1.041186224196214</v>
+        <v>1.017693850056965</v>
       </c>
       <c r="E15">
-        <v>1.032424159413631</v>
+        <v>1.003312672268799</v>
       </c>
       <c r="F15">
-        <v>1.049633556492636</v>
+        <v>1.019985750473559</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039504267308033</v>
+        <v>1.043227924447091</v>
       </c>
       <c r="J15">
-        <v>1.039515167099819</v>
+        <v>1.024247882498569</v>
       </c>
       <c r="K15">
-        <v>1.044718519218783</v>
+        <v>1.032219507846411</v>
       </c>
       <c r="L15">
-        <v>1.035988729034557</v>
+        <v>1.018100803835336</v>
       </c>
       <c r="M15">
-        <v>1.053135299466775</v>
+        <v>1.034470465884315</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033474348738584</v>
+        <v>0.9974498296491301</v>
       </c>
       <c r="D16">
-        <v>1.041578770848103</v>
+        <v>1.019615172972543</v>
       </c>
       <c r="E16">
-        <v>1.032855989805624</v>
+        <v>1.005364316710061</v>
       </c>
       <c r="F16">
-        <v>1.050110249814422</v>
+        <v>1.022260264198841</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039625394581997</v>
+        <v>1.043998166513063</v>
       </c>
       <c r="J16">
-        <v>1.039808422262776</v>
+        <v>1.025687883001912</v>
       </c>
       <c r="K16">
-        <v>1.04499651827197</v>
+        <v>1.033603411137597</v>
       </c>
       <c r="L16">
-        <v>1.036304745158966</v>
+        <v>1.019600992404955</v>
       </c>
       <c r="M16">
-        <v>1.053498218071799</v>
+        <v>1.036203374125789</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03379596582223</v>
+        <v>0.9990875931574117</v>
       </c>
       <c r="D17">
-        <v>1.041825234070545</v>
+        <v>1.020808747454181</v>
       </c>
       <c r="E17">
-        <v>1.033127212723403</v>
+        <v>1.00663947545222</v>
       </c>
       <c r="F17">
-        <v>1.050409612140233</v>
+        <v>1.023673520642456</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039701123254762</v>
+        <v>1.044473827663122</v>
       </c>
       <c r="J17">
-        <v>1.03999240615956</v>
+        <v>1.026580879024297</v>
       </c>
       <c r="K17">
-        <v>1.045170898247718</v>
+        <v>1.034461502660105</v>
       </c>
       <c r="L17">
-        <v>1.036503095426426</v>
+        <v>1.020532083558031</v>
       </c>
       <c r="M17">
-        <v>1.053725992020902</v>
+        <v>1.037278820271206</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033983651327082</v>
+        <v>1.000036487203026</v>
       </c>
       <c r="D18">
-        <v>1.04196907383487</v>
+        <v>1.021500835642784</v>
       </c>
       <c r="E18">
-        <v>1.03328553692295</v>
+        <v>1.007379098321867</v>
       </c>
       <c r="F18">
-        <v>1.050584348839724</v>
+        <v>1.024493092432799</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039745203708234</v>
+        <v>1.044748613679786</v>
       </c>
       <c r="J18">
-        <v>1.040099732187604</v>
+        <v>1.027098116166314</v>
       </c>
       <c r="K18">
-        <v>1.045272610151843</v>
+        <v>1.034958477796871</v>
       </c>
       <c r="L18">
-        <v>1.036618833160317</v>
+        <v>1.021071663059352</v>
       </c>
       <c r="M18">
-        <v>1.053858893096572</v>
+        <v>1.037902024684159</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03404766273307</v>
+        <v>1.000358966292006</v>
       </c>
       <c r="D19">
-        <v>1.04201813331649</v>
+        <v>1.021736131586282</v>
       </c>
       <c r="E19">
-        <v>1.033339542433821</v>
+        <v>1.007630594156851</v>
       </c>
       <c r="F19">
-        <v>1.050643950458792</v>
+        <v>1.024771747965063</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039760218579051</v>
+        <v>1.044841861345214</v>
       </c>
       <c r="J19">
-        <v>1.040136329470019</v>
+        <v>1.027273871198478</v>
       </c>
       <c r="K19">
-        <v>1.045307291072937</v>
+        <v>1.035127340027181</v>
       </c>
       <c r="L19">
-        <v>1.036658304048909</v>
+        <v>1.02125505690969</v>
       </c>
       <c r="M19">
-        <v>1.053904216404901</v>
+        <v>1.038113835909213</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033761449854751</v>
+        <v>0.9989125404548908</v>
       </c>
       <c r="D20">
-        <v>1.041798782410296</v>
+        <v>1.020681114531024</v>
       </c>
       <c r="E20">
-        <v>1.033098100183343</v>
+        <v>1.006503094840879</v>
       </c>
       <c r="F20">
-        <v>1.050377480583539</v>
+        <v>1.023522385906322</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039693007671199</v>
+        <v>1.044423069665577</v>
       </c>
       <c r="J20">
-        <v>1.039972665246376</v>
+        <v>1.02648544630055</v>
       </c>
       <c r="K20">
-        <v>1.045152189018472</v>
+        <v>1.034369804692996</v>
       </c>
       <c r="L20">
-        <v>1.036481809822249</v>
+        <v>1.020432550941604</v>
       </c>
       <c r="M20">
-        <v>1.053701549428443</v>
+        <v>1.037163859425014</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03283202598376</v>
+        <v>0.9941339624089014</v>
       </c>
       <c r="D21">
-        <v>1.041086618772514</v>
+        <v>1.01720232872568</v>
       </c>
       <c r="E21">
-        <v>1.03231461536311</v>
+        <v>1.002788003474464</v>
       </c>
       <c r="F21">
-        <v>1.049512620165227</v>
+        <v>1.019403954861943</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039473433049264</v>
+        <v>1.043029998452278</v>
       </c>
       <c r="J21">
-        <v>1.039440713351358</v>
+        <v>1.023879004216508</v>
       </c>
       <c r="K21">
-        <v>1.044647928815068</v>
+        <v>1.031864965691003</v>
       </c>
       <c r="L21">
-        <v>1.035908523237491</v>
+        <v>1.017716748087311</v>
       </c>
       <c r="M21">
-        <v>1.053043185041146</v>
+        <v>1.03402680796254</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03224849891841</v>
+        <v>0.9910686738297445</v>
       </c>
       <c r="D22">
-        <v>1.040639604667065</v>
+        <v>1.014976269699102</v>
       </c>
       <c r="E22">
-        <v>1.031823142263965</v>
+        <v>1.000412754711639</v>
       </c>
       <c r="F22">
-        <v>1.048969977351416</v>
+        <v>1.016769425341036</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039334565057663</v>
+        <v>1.042129275196928</v>
       </c>
       <c r="J22">
-        <v>1.03910636569424</v>
+        <v>1.022205939343609</v>
       </c>
       <c r="K22">
-        <v>1.044330881170959</v>
+        <v>1.030256769573116</v>
       </c>
       <c r="L22">
-        <v>1.035548476301124</v>
+        <v>1.015976039282797</v>
       </c>
       <c r="M22">
-        <v>1.052629656944994</v>
+        <v>1.032015839171273</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032557757559984</v>
+        <v>0.9926995695931965</v>
       </c>
       <c r="D23">
-        <v>1.040876503431027</v>
+        <v>1.016160116341356</v>
       </c>
       <c r="E23">
-        <v>1.032083573215774</v>
+        <v>1.00167575528044</v>
       </c>
       <c r="F23">
-        <v>1.049257534822366</v>
+        <v>1.018170427911316</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039408258385587</v>
+        <v>1.042609165106365</v>
       </c>
       <c r="J23">
-        <v>1.039283598672706</v>
+        <v>1.023096191682489</v>
       </c>
       <c r="K23">
-        <v>1.044498953586445</v>
+        <v>1.031112534612957</v>
       </c>
       <c r="L23">
-        <v>1.035739305476252</v>
+        <v>1.016902044403712</v>
       </c>
       <c r="M23">
-        <v>1.052848836410999</v>
+        <v>1.033085637721425</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03377704585162</v>
+        <v>0.9989916589360164</v>
       </c>
       <c r="D24">
-        <v>1.041810734524053</v>
+        <v>1.020738799017889</v>
       </c>
       <c r="E24">
-        <v>1.033111254502767</v>
+        <v>1.006564732190814</v>
       </c>
       <c r="F24">
-        <v>1.050391999068934</v>
+        <v>1.023590691865064</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039696675034737</v>
+        <v>1.044446013228039</v>
       </c>
       <c r="J24">
-        <v>1.039981585280467</v>
+        <v>1.02652857944951</v>
       </c>
       <c r="K24">
-        <v>1.045160642917068</v>
+        <v>1.03441124996699</v>
       </c>
       <c r="L24">
-        <v>1.036491427736713</v>
+        <v>1.020477536278442</v>
       </c>
       <c r="M24">
-        <v>1.053712593846942</v>
+        <v>1.037215817889154</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035195552771242</v>
+        <v>1.006044234184887</v>
       </c>
       <c r="D25">
-        <v>1.0428980649282</v>
+        <v>1.025891953322231</v>
       </c>
       <c r="E25">
-        <v>1.034308696590069</v>
+        <v>1.012075989924344</v>
       </c>
       <c r="F25">
-        <v>1.051713327248885</v>
+        <v>1.029695018514114</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040027801816837</v>
+        <v>1.046473658009159</v>
       </c>
       <c r="J25">
-        <v>1.040791999496987</v>
+        <v>1.030369883954902</v>
       </c>
       <c r="K25">
-        <v>1.045928452833286</v>
+        <v>1.038101199490573</v>
       </c>
       <c r="L25">
-        <v>1.037365920003747</v>
+        <v>1.02448969006181</v>
       </c>
       <c r="M25">
-        <v>1.054716671167548</v>
+        <v>1.041849205593191</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
